--- a/US Companies List.xlsx
+++ b/US Companies List.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\US Companies List\Companies-List-in-USA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CBC30F-FEE8-446C-9B89-58CE88C27A48}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6643FE-D0BD-4AA1-800B-170398AA5BA3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2352,13 +2352,15 @@
   <dimension ref="A1:D760"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">

--- a/US Companies List.xlsx
+++ b/US Companies List.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\US Companies List\Companies-List-in-USA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\US Companies List\Companies-List-in-the-USA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6643FE-D0BD-4AA1-800B-170398AA5BA3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72DE722-71DF-46F6-B5C4-F5DD2D569A47}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="665">
   <si>
     <t xml:space="preserve">S.No </t>
   </si>
@@ -2017,6 +2017,9 @@
   </si>
   <si>
     <t>Leetcode</t>
+  </si>
+  <si>
+    <t>Revolutionary Integration Group</t>
   </si>
 </sst>
 </file>
@@ -2351,8 +2354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D760"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A752" workbookViewId="0">
+      <selection activeCell="B762" sqref="A761:B762"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7694,7 +7697,7 @@
         <v>665</v>
       </c>
       <c r="B666" t="s">
-        <v>518</v>
+        <v>664</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.25">
